--- a/data/steel/industries/steel_industry_EU28-BEonly.xlsx
+++ b/data/steel/industries/steel_industry_EU28-BEonly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/industries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49B7A3B-66DD-034F-B285-25D306F1273B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4393A0BB-06DF-9149-80BF-D657F782A01E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="25260" windowHeight="15760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1640" yWindow="460" windowWidth="25260" windowHeight="15760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Factory List" sheetId="1" r:id="rId1"/>
@@ -158,7 +158,7 @@
     <t>data/steel/factories/steel_simplified_factory-ccs-bfcoke.xlsx</t>
   </si>
   <si>
-    <t>EU-C0-2030</t>
+    <t>EU-0B-2030</t>
   </si>
 </sst>
 </file>
@@ -822,7 +822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
